--- a/assets/sp_cetesb_infoaguas/excel/BMAN02250.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/BMAN02250.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,18 +506,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>165.00000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -532,18 +532,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>8.70000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -558,18 +558,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14.00000000</t>
+          <t>5.61000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -584,18 +584,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.56000000</t>
+          <t>14.00000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -610,18 +610,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -636,18 +636,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.70000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -662,7 +666,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -672,7 +676,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -722,22 +726,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>165.00000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -752,22 +752,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>27.10000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -782,7 +778,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -792,7 +788,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -812,17 +808,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -842,18 +834,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>218685.00000000</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -868,18 +860,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27.10000000</t>
+          <t>0.56000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -894,18 +886,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.14000000</t>
+          <t>4.70000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -920,18 +912,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -946,18 +942,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.17000000</t>
+          <t>218685.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -972,13 +968,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>108.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -998,13 +998,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>120.00000000</t>
+          <t>12.25000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1024,18 +1024,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>120.00000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1050,18 +1050,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.70000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1076,18 +1076,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>6.14000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1102,18 +1102,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.61000000</t>
+          <t>8.17000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1128,13 +1128,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12.25000000</t>
+          <t>108.00000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1154,18 +1154,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.70000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1180,18 +1180,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.08000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1206,18 +1206,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>43629.00000000</t>
+          <t>9.26000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1232,18 +1232,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>102.00000000</t>
+          <t>2.90000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1258,13 +1258,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1284,18 +1288,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>102.00000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1314,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1340,18 +1340,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>5.60000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1366,18 +1366,18 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13.99000000</t>
+          <t>177.00000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1392,22 +1392,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1422,13 +1418,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1448,17 +1448,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>13.99000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1478,18 +1474,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9.26000000</t>
+          <t>2.08000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1504,22 +1500,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1564,18 +1556,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1590,18 +1582,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.90000000</t>
+          <t>109.00000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1616,13 +1608,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1642,18 +1638,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>177.00000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1668,18 +1664,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>43629.00000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -1694,18 +1690,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1720,18 +1716,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>109.00000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1746,13 +1742,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6.60000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1772,18 +1772,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>15.50000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5.60000000</t>
+          <t>6.60000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1824,18 +1824,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15.50000000</t>
+          <t>7.70000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1850,18 +1850,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>21.05000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1880,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1886,7 +1890,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1906,18 +1910,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9.95000000</t>
+          <t>61388.00000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -1932,18 +1936,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>170.00000000</t>
+          <t>1.17000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1958,17 +1962,13 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>10.74000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1988,18 +1988,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10.74000000</t>
+          <t>32.00000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2014,18 +2014,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2040,18 +2044,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>9.50000000</t>
+          <t>9.95000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2066,18 +2070,18 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.73500000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2092,18 +2096,18 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>32.00000000</t>
+          <t>0.73500000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2118,22 +2122,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2148,18 +2148,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>0.19000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2174,18 +2174,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2200,18 +2204,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2226,18 +2230,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>61388.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2278,18 +2282,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>170.00000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2304,18 +2308,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.17000000</t>
+          <t>13.67000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2330,18 +2334,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>9.50000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2356,18 +2360,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>21.05000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2386,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.19000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2408,18 +2412,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7.40000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2434,13 +2438,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13.67000000</t>
+          <t>7.40000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2460,22 +2464,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2490,18 +2490,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2516,18 +2520,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>23.79000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2572,18 +2576,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2598,18 +2606,18 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>109507.00000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2624,18 +2632,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7.50000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2650,18 +2662,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>8.33000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2676,18 +2688,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>23.79000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2702,18 +2714,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.19000000</t>
+          <t>7.50000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2728,18 +2740,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.30000000</t>
+          <t>109507.00000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -2754,18 +2766,18 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>8.33000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2806,18 +2818,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2.22000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2832,18 +2844,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>111.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2858,18 +2870,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>6.20000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2884,13 +2896,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13.10000000</t>
+          <t>9.40000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2910,13 +2922,13 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>13.10000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -2936,18 +2948,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>169.00000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2962,22 +2974,18 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>26.10000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2992,13 +3000,13 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>9.40000000</t>
+          <t>111.00000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3018,18 +3026,18 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>4.30000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3044,17 +3052,13 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3074,17 +3078,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3104,18 +3104,18 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6.20000000</t>
+          <t>2.22000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3130,18 +3130,18 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>26.10000000</t>
+          <t>0.19000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3156,18 +3156,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>169.00000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3182,13 +3182,13 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>128.00000000</t>
+          <t>8.70000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3208,18 +3208,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3234,18 +3234,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>9.90000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3260,18 +3260,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3286,13 +3286,13 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>113.00000000</t>
+          <t>128.00000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3312,13 +3312,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6.20000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3338,18 +3338,18 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>9.30000000</t>
+          <t>20.31000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3364,13 +3364,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>8.70000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3390,18 +3394,18 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>1.76000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3416,18 +3420,18 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>163.00000000</t>
+          <t>14.20000000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3442,18 +3446,18 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>3.90000000</t>
+          <t>29.00000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3468,18 +3472,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>281746.00000000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -3494,18 +3498,18 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3520,18 +3524,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.76000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3546,13 +3550,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>14.20000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3572,18 +3580,18 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>9.30000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3598,13 +3606,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3624,18 +3636,18 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>29.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3650,22 +3662,18 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3680,18 +3688,18 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>20.31000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3706,18 +3714,18 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>163.00000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3732,18 +3740,18 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>3.90000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3758,17 +3766,13 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>113.00000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3788,17 +3792,13 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>6.20000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3818,18 +3818,18 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>281746.00000000</t>
+          <t>9.90000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3874,18 +3874,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>29.40000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3900,18 +3904,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4.70000000</t>
+          <t>1.63000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3926,18 +3930,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>28.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3952,17 +3960,13 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>8.03000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -3982,17 +3986,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4012,18 +4012,18 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>6.50000000</t>
+          <t>152498.00000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -4038,18 +4038,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4064,13 +4068,13 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>14.09000000</t>
+          <t>6.50000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4090,18 +4094,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>21.38000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4116,18 +4120,18 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4142,18 +4146,18 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>174.00000000</t>
+          <t>9.10000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4168,13 +4172,13 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>9.01000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4220,18 +4224,18 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1.63000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4246,18 +4250,18 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>28.00000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4272,18 +4276,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4298,22 +4302,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>29.40000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -4418,18 +4418,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>152498.00000000</t>
+          <t>21.38000000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4444,13 +4444,13 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>8.03000000</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -4470,18 +4470,18 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>174.00000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4496,18 +4496,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>9.01000000</t>
+          <t>4.70000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -4552,18 +4552,2128 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>9.10000000</t>
+          <t>14.09000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>10.70000000</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>22.60000000</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>127.00000000</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>6.30000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>206.00000000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>140.00000000</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2.14000000</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>19.99000000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>24.06000000</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>199695.00000000</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>N. Células/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.73800000</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>4.00000000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>21.00000000</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0.21000000</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>5.30000000</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>7.80000000</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>7.47000000</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44355.38541666666</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>138.00000000</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>8.70000000</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>147.00000000</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>19.50000000</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>15.25000000</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>7.70000000</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.64000000</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>42.39000000</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>223.00000000</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>4.00000000</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>3.59000000</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>0.24000000</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.88600000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>8.40000000</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>165473.00000000</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>N. Células/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44411.38541666666</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>10.45000000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Saxitoxina</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>6.40000000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>112.00000000</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>21.60000000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>3.50000000</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>22.72000000</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>7.13000000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>218.00000000</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.64000000</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>23.00000000</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>11.00000000</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2.73000000</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>11.80000000</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>137.00000000</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>24.70000000</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Microcistinas</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>0.26000000</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>79949.00000000</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>N. Células/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BMAN02250</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44490.36805555555</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.24000000</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
